--- a/Documentation/接口交互文档版本记录/详细数据接口.xlsx
+++ b/Documentation/接口交互文档版本记录/详细数据接口.xlsx
@@ -54,11 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>waferId：晶圆主键；
-dataFormat：数据格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>result：数据集合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,6 +222,12 @@
   </si>
   <si>
     <t>Smith图切换显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId：晶圆主键；
+dataFormat：数据格式
+webParam:产品类别/批次号/晶圆编号拼接成的字符串，前端自用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,6 +429,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -445,9 +449,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -861,14 +862,14 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -878,9 +879,9 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="50.25" customHeight="1">
+    <row r="4" spans="1:6" ht="102.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -889,110 +890,110 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="121.5" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="56.25" customHeight="1">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="56.25" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="98.25" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="98.25" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="9" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>32</v>
+      <c r="A10" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1002,127 +1003,127 @@
     </row>
     <row r="11" spans="1:6" ht="43.5" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="290.25" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="43.5" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="43.5" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="43.5" customHeight="1">
       <c r="A15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="68.25" customHeight="1">
       <c r="A16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="43.5" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="3"/>
     </row>

--- a/Documentation/接口交互文档版本记录/详细数据接口.xlsx
+++ b/Documentation/接口交互文档版本记录/详细数据接口.xlsx
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后台控制跳转页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ExportWafer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,6 +224,22 @@
     <t>waferId：晶圆主键；
 dataFormat：数据格式
 webParam:产品类别/批次号/晶圆编号拼接成的字符串，前端自用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>后台控制跳转页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，区分die与subdie</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +284,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +309,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -401,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,6 +466,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,6 +557,140 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="C:\Users\zuo\Documents\Tencent Files\1576664187\Image\C2C\Image1\BY036747(U]S)40(~_2G7@C.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13354050" y="14049375"/>
+          <a:ext cx="7429500" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16697325" y="647700"/>
+          <a:ext cx="4724400" cy="7505700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21497925" y="647700"/>
+          <a:ext cx="6372225" cy="7286625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -828,7 +986,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -880,120 +1038,120 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="102.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="121.5" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="56.25" customHeight="1">
       <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="98.25" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="50.25" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="50.25" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1003,129 +1161,128 @@
     </row>
     <row r="11" spans="1:6" ht="43.5" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="290.25" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="43.5" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="43.5" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="43.5" customHeight="1">
       <c r="A15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="68.25" customHeight="1">
       <c r="A16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="43.5" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="72.75" customHeight="1">
       <c r="A18" s="3"/>
